--- a/raw_data/raw_artificial_dat/cups_db_1.xlsx
+++ b/raw_data/raw_artificial_dat/cups_db_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duke\Lectures\02_IDS_706_DATA_ENGINEERING\group_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99770138-9751-4892-8128-B7185127706C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041DC61A-12D5-43D0-B12E-5A17B9543D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="12">
   <si>
     <t>cup_id</t>
   </si>
@@ -135,6 +135,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -162,20 +176,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -190,9 +190,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BA4F9C2-0269-4D10-8AA1-1AD9D697ACC3}" name="Table1" displayName="Table1" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
-    <sortCondition ref="A1:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BA4F9C2-0269-4D10-8AA1-1AD9D697ACC3}" name="Table1" displayName="Table1" ref="A1:D42" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:D42" xr:uid="{6BA4F9C2-0269-4D10-8AA1-1AD9D697ACC3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+    <sortCondition ref="B1:B42"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63A812C9-C618-44B8-9928-54748B30802E}" name="cup_id"/>
@@ -489,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +520,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>989964</v>
+        <v>989972</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -533,10 +534,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>989965</v>
+        <v>989984</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -547,7 +548,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>989966</v>
+        <v>989988</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -561,24 +562,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>989967</v>
+        <v>989958</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>989968</v>
+        <v>989961</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -589,10 +590,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>989969</v>
+        <v>989964</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -603,35 +604,35 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>989970</v>
+        <v>989966</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>989971</v>
+        <v>989980</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>989972</v>
+        <v>989982</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -640,15 +641,15 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>989973</v>
+        <v>989986</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -659,21 +660,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>989974</v>
+        <v>989989</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>989975</v>
+        <v>989970</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -682,12 +683,12 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>989976</v>
+        <v>989971</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -701,10 +702,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>989977</v>
+        <v>989976</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -715,38 +716,38 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>989978</v>
+        <v>989960</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>989979</v>
+        <v>989963</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>989980</v>
+        <v>989967</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -757,24 +758,24 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>989981</v>
+        <v>989969</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>989982</v>
+        <v>989975</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -799,38 +800,38 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>989984</v>
+        <v>989990</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>989985</v>
+        <v>989995</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>989986</v>
+        <v>989996</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -841,63 +842,63 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>989987</v>
+        <v>989979</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>989988</v>
+        <v>989981</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>989989</v>
+        <v>989985</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>989990</v>
+        <v>989991</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>989991</v>
+        <v>989992</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -911,7 +912,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>989992</v>
+        <v>989993</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -925,7 +926,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>989993</v>
+        <v>989997</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -939,7 +940,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>989994</v>
+        <v>989977</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -948,54 +949,54 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>989995</v>
+        <v>989978</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>989996</v>
+        <v>989987</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>989997</v>
+        <v>989998</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>989998</v>
+        <v>989959</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1004,7 +1005,91 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>989962</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>989965</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>989968</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>989973</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>989974</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>989994</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
